--- a/data/pca/factorExposure/factorExposure_2013-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001532481609263161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00191854152412133</v>
+      </c>
+      <c r="C2">
+        <v>-0.03314195877772439</v>
+      </c>
+      <c r="D2">
+        <v>0.0009886223206739511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002068320691608518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005941846949113109</v>
+      </c>
+      <c r="C4">
+        <v>-0.08721993491344193</v>
+      </c>
+      <c r="D4">
+        <v>0.07544498479996667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0009937985044602073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01334327538050569</v>
+      </c>
+      <c r="C6">
+        <v>-0.1122508700262801</v>
+      </c>
+      <c r="D6">
+        <v>0.02906902794564893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002129035095123293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00465216246469905</v>
+      </c>
+      <c r="C7">
+        <v>-0.05671879371532079</v>
+      </c>
+      <c r="D7">
+        <v>0.03010835131486634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003064190922018914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005588134603769728</v>
+      </c>
+      <c r="C8">
+        <v>-0.03824426834937371</v>
+      </c>
+      <c r="D8">
+        <v>0.04020789279770562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00412356458372728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004063964053715769</v>
+      </c>
+      <c r="C9">
+        <v>-0.07264332838234563</v>
+      </c>
+      <c r="D9">
+        <v>0.06958770033837958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004291508285120452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005174772359052871</v>
+      </c>
+      <c r="C10">
+        <v>-0.06026477905267282</v>
+      </c>
+      <c r="D10">
+        <v>-0.2038195990834939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003327089319003339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005226678013506946</v>
+      </c>
+      <c r="C11">
+        <v>-0.08126946910318697</v>
+      </c>
+      <c r="D11">
+        <v>0.06031988405950679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-1.280854374472409e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003844079882204963</v>
+      </c>
+      <c r="C12">
+        <v>-0.06471255475647072</v>
+      </c>
+      <c r="D12">
+        <v>0.04576045755186221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003351974359315107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008458147218342598</v>
+      </c>
+      <c r="C13">
+        <v>-0.06750920333490236</v>
+      </c>
+      <c r="D13">
+        <v>0.06461492597753381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001510250693381776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001385514671434957</v>
+      </c>
+      <c r="C14">
+        <v>-0.04666664187961678</v>
+      </c>
+      <c r="D14">
+        <v>0.008584859910766495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001236283590631701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005918752361593906</v>
+      </c>
+      <c r="C15">
+        <v>-0.04278900400547838</v>
+      </c>
+      <c r="D15">
+        <v>0.03085891512127481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001482121252499185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004845280061209378</v>
+      </c>
+      <c r="C16">
+        <v>-0.06682187287276016</v>
+      </c>
+      <c r="D16">
+        <v>0.04555469063715909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002466232930654787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008725442893382084</v>
+      </c>
+      <c r="C20">
+        <v>-0.06833824237344878</v>
+      </c>
+      <c r="D20">
+        <v>0.04765816223658741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005304895852102125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009786735908045557</v>
+      </c>
+      <c r="C21">
+        <v>-0.02337742580905757</v>
+      </c>
+      <c r="D21">
+        <v>0.03527231019598775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01709599938298349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007092068319622308</v>
+      </c>
+      <c r="C22">
+        <v>-0.0948829597443572</v>
+      </c>
+      <c r="D22">
+        <v>0.1020104093414303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01741913847432576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006905905198127276</v>
+      </c>
+      <c r="C23">
+        <v>-0.09575743870868211</v>
+      </c>
+      <c r="D23">
+        <v>0.1023724477915161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002013810718314672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004875382380316204</v>
+      </c>
+      <c r="C24">
+        <v>-0.07557174587624689</v>
+      </c>
+      <c r="D24">
+        <v>0.05859173277331178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004014951264930322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002635412721622815</v>
+      </c>
+      <c r="C25">
+        <v>-0.07900701039261639</v>
+      </c>
+      <c r="D25">
+        <v>0.06335857273546122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006385209895735012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003508856700792463</v>
+      </c>
+      <c r="C26">
+        <v>-0.04303215456086978</v>
+      </c>
+      <c r="D26">
+        <v>0.02561761774007523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00519013730662949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.00114564306309216</v>
+      </c>
+      <c r="C28">
+        <v>-0.1090887909398335</v>
+      </c>
+      <c r="D28">
+        <v>-0.3185349378103031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001326082522251387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002946320628603197</v>
+      </c>
+      <c r="C29">
+        <v>-0.04966191050122801</v>
+      </c>
+      <c r="D29">
+        <v>0.004338728817343982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003910939283032777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008663099838216072</v>
+      </c>
+      <c r="C30">
+        <v>-0.1447238749673167</v>
+      </c>
+      <c r="D30">
+        <v>0.09753366680523039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-3.349827358217902e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006033922286460039</v>
+      </c>
+      <c r="C31">
+        <v>-0.04577075768920263</v>
+      </c>
+      <c r="D31">
+        <v>0.03236582027267754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005540714592050471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003779680150977342</v>
+      </c>
+      <c r="C32">
+        <v>-0.04040128307740081</v>
+      </c>
+      <c r="D32">
+        <v>0.02057249761339379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003376709403048142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007799889342464754</v>
+      </c>
+      <c r="C33">
+        <v>-0.08665774562985551</v>
+      </c>
+      <c r="D33">
+        <v>0.07161116259766485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004586340782757184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003646647022523882</v>
+      </c>
+      <c r="C34">
+        <v>-0.05832554710906589</v>
+      </c>
+      <c r="D34">
+        <v>0.04693334845505493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002704655467601492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00466327731842022</v>
+      </c>
+      <c r="C35">
+        <v>-0.03990245252305739</v>
+      </c>
+      <c r="D35">
+        <v>0.013641205233139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004156615630710468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001381995387418431</v>
+      </c>
+      <c r="C36">
+        <v>-0.02570589965963814</v>
+      </c>
+      <c r="D36">
+        <v>0.02066866362885851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00191717408111629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009436871298253765</v>
+      </c>
+      <c r="C38">
+        <v>-0.03485950545006069</v>
+      </c>
+      <c r="D38">
+        <v>0.020702092698475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01336623657780278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001140498875248415</v>
+      </c>
+      <c r="C39">
+        <v>-0.1185434990226115</v>
+      </c>
+      <c r="D39">
+        <v>0.07426581918048193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009791343367677743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001935712602752548</v>
+      </c>
+      <c r="C40">
+        <v>-0.08898029210160041</v>
+      </c>
+      <c r="D40">
+        <v>0.008829181383058601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004057989129810645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007099528538901678</v>
+      </c>
+      <c r="C41">
+        <v>-0.03786256673902254</v>
+      </c>
+      <c r="D41">
+        <v>0.03567258551948101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003365995344468247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003405079263333334</v>
+      </c>
+      <c r="C43">
+        <v>-0.05122990381911831</v>
+      </c>
+      <c r="D43">
+        <v>0.02478687483072075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00297838225595298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003285147515457393</v>
+      </c>
+      <c r="C44">
+        <v>-0.115016299918544</v>
+      </c>
+      <c r="D44">
+        <v>0.0705879254202295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001762953841329078</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002250589823336112</v>
+      </c>
+      <c r="C46">
+        <v>-0.03617810807090981</v>
+      </c>
+      <c r="D46">
+        <v>0.0268064535394961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0007458393316084436</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002640898162035861</v>
+      </c>
+      <c r="C47">
+        <v>-0.03799440838363977</v>
+      </c>
+      <c r="D47">
+        <v>0.02484968373235868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003162458075857609</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006313792663318103</v>
+      </c>
+      <c r="C48">
+        <v>-0.02979223372456286</v>
+      </c>
+      <c r="D48">
+        <v>0.03168373146827565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0144317388750789</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01437424648895465</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828475760824721</v>
+      </c>
+      <c r="D49">
+        <v>0.009804091895347146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001460833432687399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003454799914294379</v>
+      </c>
+      <c r="C50">
+        <v>-0.04473710931690846</v>
+      </c>
+      <c r="D50">
+        <v>0.0347078486327877</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0005609622337718817</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004215417862754448</v>
+      </c>
+      <c r="C51">
+        <v>-0.02506638624057676</v>
+      </c>
+      <c r="D51">
+        <v>0.0226999859286704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003711967221104124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01988339297875695</v>
+      </c>
+      <c r="C53">
+        <v>-0.1686485163843787</v>
+      </c>
+      <c r="D53">
+        <v>0.03951414006584567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0006973118966963265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008598629210181339</v>
+      </c>
+      <c r="C54">
+        <v>-0.05695764231064095</v>
+      </c>
+      <c r="D54">
+        <v>0.04237723700118141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004123986292397297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009050759436711124</v>
+      </c>
+      <c r="C55">
+        <v>-0.109419097477523</v>
+      </c>
+      <c r="D55">
+        <v>0.04519756328508048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002970633503103088</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01937936073487482</v>
+      </c>
+      <c r="C56">
+        <v>-0.175555132223732</v>
+      </c>
+      <c r="D56">
+        <v>0.03943674850009272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007460027538102009</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01914731209518787</v>
+      </c>
+      <c r="C58">
+        <v>-0.1087397964283321</v>
+      </c>
+      <c r="D58">
+        <v>0.05264976628375223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006950282336057755</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008663299767757432</v>
+      </c>
+      <c r="C59">
+        <v>-0.157516931700491</v>
+      </c>
+      <c r="D59">
+        <v>-0.3031431304218783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004692850293852473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02289083555032092</v>
+      </c>
+      <c r="C60">
+        <v>-0.222941116070766</v>
+      </c>
+      <c r="D60">
+        <v>0.02157625065387891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01487149371840014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00217086555821779</v>
+      </c>
+      <c r="C61">
+        <v>-0.09651526319465092</v>
+      </c>
+      <c r="D61">
+        <v>0.05823382124505314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1699250955385939</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438242906999146</v>
+      </c>
+      <c r="C62">
+        <v>-0.08754823415121495</v>
+      </c>
+      <c r="D62">
+        <v>0.04554456112064453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001257115857799304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006153834543886794</v>
+      </c>
+      <c r="C63">
+        <v>-0.05800190673610534</v>
+      </c>
+      <c r="D63">
+        <v>0.02519144441737649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005423652812479161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01470148111790046</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056071232108164</v>
+      </c>
+      <c r="D64">
+        <v>0.05928560347191957</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001778408110635123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01698088565492816</v>
+      </c>
+      <c r="C65">
+        <v>-0.1196550201556531</v>
+      </c>
+      <c r="D65">
+        <v>0.01482713567141921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008661097172256172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01213275242089358</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606759198571927</v>
+      </c>
+      <c r="D66">
+        <v>0.1134948720364798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003315662734631303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.015463911636126</v>
+      </c>
+      <c r="C67">
+        <v>-0.06541361616455192</v>
+      </c>
+      <c r="D67">
+        <v>0.02949764786045975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006696729267965845</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004641311152045004</v>
+      </c>
+      <c r="C68">
+        <v>-0.08848298831855497</v>
+      </c>
+      <c r="D68">
+        <v>-0.2502900893042753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002895884781226373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005724589559168295</v>
+      </c>
+      <c r="C69">
+        <v>-0.05045542849789016</v>
+      </c>
+      <c r="D69">
+        <v>0.03900917025047493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0001391981611671144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001788629060435666</v>
+      </c>
+      <c r="C70">
+        <v>-0.002504233521370559</v>
+      </c>
+      <c r="D70">
+        <v>0.0003675207219718988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001299020166197492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005716688740198172</v>
+      </c>
+      <c r="C71">
+        <v>-0.09830655430699661</v>
+      </c>
+      <c r="D71">
+        <v>-0.2955623304022975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005506044799567162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01515111226116917</v>
+      </c>
+      <c r="C72">
+        <v>-0.149926611618802</v>
+      </c>
+      <c r="D72">
+        <v>0.02093972760810444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0119067854972184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02870413768660517</v>
+      </c>
+      <c r="C73">
+        <v>-0.2752592829200814</v>
+      </c>
+      <c r="D73">
+        <v>0.04728709926340899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005196214435948529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001053133810818157</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044260414524497</v>
+      </c>
+      <c r="D74">
+        <v>0.0411246967458819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003600578901596913</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01046643038215945</v>
+      </c>
+      <c r="C75">
+        <v>-0.1315093744261732</v>
+      </c>
+      <c r="D75">
+        <v>0.02607745121880952</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009173256702705785</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02087304424274734</v>
+      </c>
+      <c r="C76">
+        <v>-0.1502753526017426</v>
+      </c>
+      <c r="D76">
+        <v>0.06562672707779278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0003967121500571832</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0238679142035073</v>
+      </c>
+      <c r="C77">
+        <v>-0.1340787198683411</v>
+      </c>
+      <c r="D77">
+        <v>0.05619398808929772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00139761477597943</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0141036021085583</v>
+      </c>
+      <c r="C78">
+        <v>-0.09483177493169356</v>
+      </c>
+      <c r="D78">
+        <v>0.06890160206642837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02446910891486765</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03669346646590479</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574570640807844</v>
+      </c>
+      <c r="D79">
+        <v>0.03158284576911061</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004671341893166988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01038063036382621</v>
+      </c>
+      <c r="C80">
+        <v>-0.04257832054379743</v>
+      </c>
+      <c r="D80">
+        <v>0.03013471467839896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0006224570472482817</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01445295157505178</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288767789957295</v>
+      </c>
+      <c r="D81">
+        <v>0.04418499500928762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005511500971407195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01916504738919616</v>
+      </c>
+      <c r="C82">
+        <v>-0.1442365520004834</v>
+      </c>
+      <c r="D82">
+        <v>0.04176708271007268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008587391945710109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009931310406979092</v>
+      </c>
+      <c r="C83">
+        <v>-0.05781942140133411</v>
+      </c>
+      <c r="D83">
+        <v>0.05311773082756369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01247284924771061</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.011471237740962</v>
+      </c>
+      <c r="C84">
+        <v>-0.03657773175317585</v>
+      </c>
+      <c r="D84">
+        <v>-0.009253911756270853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01531518287204402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02760885468027775</v>
+      </c>
+      <c r="C85">
+        <v>-0.1313368462454406</v>
+      </c>
+      <c r="D85">
+        <v>0.04405453151199051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001420481633487373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005295361472968732</v>
+      </c>
+      <c r="C86">
+        <v>-0.04952271780063734</v>
+      </c>
+      <c r="D86">
+        <v>0.01985590596954803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005934767762211963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01006168712880777</v>
+      </c>
+      <c r="C87">
+        <v>-0.1324094440795991</v>
+      </c>
+      <c r="D87">
+        <v>0.0657088512666327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01326955466999194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003134576507857523</v>
+      </c>
+      <c r="C88">
+        <v>-0.06760384328391365</v>
+      </c>
+      <c r="D88">
+        <v>0.01213527856591212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01548887609586326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002072923169162367</v>
+      </c>
+      <c r="C89">
+        <v>-0.1456740870434836</v>
+      </c>
+      <c r="D89">
+        <v>-0.3520408404455592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002900541896538643</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006543314263629939</v>
+      </c>
+      <c r="C90">
+        <v>-0.1222348003153592</v>
+      </c>
+      <c r="D90">
+        <v>-0.3225717081407707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006130021188478941</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009923378271809774</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033751264660555</v>
+      </c>
+      <c r="D91">
+        <v>0.02221402317713232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008973597631778175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0001000156731087437</v>
+      </c>
+      <c r="C92">
+        <v>-0.1352056163412312</v>
+      </c>
+      <c r="D92">
+        <v>-0.3373805495006343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0007374510776934977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004475683067310594</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055374959901163</v>
+      </c>
+      <c r="D93">
+        <v>-0.3166734087353859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003428406256035305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02192849230577078</v>
+      </c>
+      <c r="C94">
+        <v>-0.1534529720606157</v>
+      </c>
+      <c r="D94">
+        <v>0.04702525603881264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004896460728541269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01579246883096577</v>
+      </c>
+      <c r="C95">
+        <v>-0.1269170721694977</v>
+      </c>
+      <c r="D95">
+        <v>0.06085724669295789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002401110502244801</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03361045166421667</v>
+      </c>
+      <c r="C97">
+        <v>-0.189264587561229</v>
+      </c>
+      <c r="D97">
+        <v>0.008323200869906733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004320845144828639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03565164967394485</v>
+      </c>
+      <c r="C98">
+        <v>-0.2491805499756431</v>
+      </c>
+      <c r="D98">
+        <v>0.04970362810716551</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9834508520235935</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829014051872157</v>
+      </c>
+      <c r="C99">
+        <v>0.1101348233802658</v>
+      </c>
+      <c r="D99">
+        <v>-0.02741220611668154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001281835158456614</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002990394717413607</v>
+      </c>
+      <c r="C101">
+        <v>-0.04969286428615229</v>
+      </c>
+      <c r="D101">
+        <v>0.004785005753793438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
